--- a/ExcelEsport/Dim bootcamp notes.xlsx
+++ b/ExcelEsport/Dim bootcamp notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D232CF6-5ACE-430D-92AA-DB95893B7B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2948472F-0103-42F6-BE6F-669AD684E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="7" xr2:uid="{F9BF1E89-DD97-4488-B5FA-5A3F8B8826CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{F9BF1E89-DD97-4488-B5FA-5A3F8B8826CF}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -21,15 +21,23 @@
     <sheet name="D3 ex" sheetId="6" r:id="rId6"/>
     <sheet name="D4" sheetId="7" r:id="rId7"/>
     <sheet name="D5" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId9"/>
+    <sheet name="D7" sheetId="10" r:id="rId9"/>
+    <sheet name="D8" sheetId="11" r:id="rId10"/>
+    <sheet name="D8 ex" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'D4'!$D$32:$E$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'D5'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'D7'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'D8'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'D8 ex'!$A$9:$C$57</definedName>
+    <definedName name="Data_2D">'D8 ex'!$B$3:$M$6</definedName>
     <definedName name="emails">'D1 ex'!$B$2</definedName>
+    <definedName name="Month_2D">'D8 ex'!$B$2:$M$2</definedName>
     <definedName name="names">'D1 ex'!$B$13</definedName>
+    <definedName name="Team_2D">'D8 ex'!$A$3:$A$6</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -165,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="339">
   <si>
     <t>Excel World Cup Boot Camp - Day 1</t>
   </si>
@@ -638,6 +646,9 @@
     <t>E</t>
   </si>
   <si>
+    <t>=IFS(exact(upper(B14), lower(B14)), "non letter", exact(lower(B14), "Lower Case", "Upper Case"))</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -1274,17 +1285,311 @@
   <si>
     <t>235 bolts; 435 nuts; 725 wrenches, 35lbs of screws</t>
   </si>
+  <si>
+    <t>12-2345-100</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Excel World Cup Boot Camp - Day 7</t>
+  </si>
+  <si>
+    <t>Moving between cell addresses, rows and columns, and references</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="30.6"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cell address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="30.6"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cell reference</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="30.6"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Row number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="30.6"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Column number</t>
+    </r>
+  </si>
+  <si>
+    <t>Address to reference: use INDIRECT</t>
+  </si>
+  <si>
+    <t>Address to row / column numbers - lots of options!</t>
+  </si>
+  <si>
+    <t>1. Use INDIRECT with ROW / COLUMN</t>
+  </si>
+  <si>
+    <t>AFD7983</t>
+  </si>
+  <si>
+    <t>2. Use TEXTSPLIT with multiple delimiters</t>
+  </si>
+  <si>
+    <t>You'll need to match the column letters against a list to get back a number</t>
+  </si>
+  <si>
+    <t>3. For simpler cases, use fixed splits</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>This works best if columns don't go past Z - this is often the case in Esports</t>
+  </si>
+  <si>
+    <t>Row / column numbers to reference - use INDEX</t>
+  </si>
+  <si>
+    <t>← Row number</t>
+  </si>
+  <si>
+    <t>← Column number</t>
+  </si>
+  <si>
+    <t>Row / column numbers to address - use ADDRESS</t>
+  </si>
+  <si>
+    <t>Honorable mention in this set: OFFSET</t>
+  </si>
+  <si>
+    <t>OFFSET(reference, rows, cols, [height], [width])</t>
+  </si>
+  <si>
+    <t>Helpful if you insert a row / column, make another copy of a map, etc.</t>
+  </si>
+  <si>
+    <t>Excel World Cup Boot Camp - Day 8</t>
+  </si>
+  <si>
+    <t>Simple 2-D lookups</t>
+  </si>
+  <si>
+    <t>What were the sales of Team Beta in October (in $k)?</t>
+  </si>
+  <si>
+    <t>Team Beta</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Multiple matches</t>
+  </si>
+  <si>
+    <t>What were the sales of these teams in these months (in $k)?</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Team Gamma</t>
+  </si>
+  <si>
+    <t>Team Alpha</t>
+  </si>
+  <si>
+    <r>
+      <t>↑</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="30.6"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Note the order doesn't have to match the source data!</t>
+    </r>
+  </si>
+  <si>
+    <t>Reverse 2-D lookup</t>
+  </si>
+  <si>
+    <t>What team, in what month, generated $20k in sales?</t>
+  </si>
+  <si>
+    <t>(For now assume only one match)</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>For number labels, you can use SUM instead of CONCAT, or 'coerce' with *1</t>
+  </si>
+  <si>
+    <t>If you have to do a lot of lookups, flattening the table might work better</t>
+  </si>
+  <si>
+    <t>Find the team and month for each of these sales</t>
+  </si>
+  <si>
+    <t>To flatten, you'll need TOCOL and the concept of 'broadcasting'</t>
+  </si>
+  <si>
+    <t>TOCOL flattens a 2-D array into a single column</t>
+  </si>
+  <si>
+    <t>It can optionally ignore errors, blanks, or both, in the data</t>
+  </si>
+  <si>
+    <t>This makes it easy to flatten the sales data, but matching the labels is harder</t>
+  </si>
+  <si>
+    <t>You might already understand broadcasting if you've used Dynamic Arrays</t>
+  </si>
+  <si>
+    <t>If you operate on two or more arrays of different dimensions, Excel will</t>
+  </si>
+  <si>
+    <t>automatically 'broadcast' (or 'lift') one to the dimensions of the other</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>We're really adding these two arrays:</t>
+  </si>
+  <si>
+    <t>A single cell can grow to a row, column, or 2-D array</t>
+  </si>
+  <si>
+    <t>A row or column can grow to a 2-D array</t>
+  </si>
+  <si>
+    <t>(Other cases - e.g. adding rows of different sizes - can cause errors)</t>
+  </si>
+  <si>
+    <t>We can use broadcasting to create a flattened list of labels - just use any</t>
+  </si>
+  <si>
+    <t>operation to expand the labels to the size of the main data, then use TOCOL</t>
+  </si>
+  <si>
+    <t>(It seems complicated, but it's very easy!)</t>
+  </si>
+  <si>
+    <t>For multiple matches, you can use FILTER with a flattened table</t>
+  </si>
+  <si>
+    <t>Find all teams / months with sales of $21k</t>
+  </si>
+  <si>
+    <t>You can also get creative with the options in TOCOL</t>
+  </si>
+  <si>
+    <t>[Nerd challenge!] List all months where any team's sales were at least $39k</t>
+  </si>
+  <si>
+    <t>Sales (min)</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Sales by team and month ($k)</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Team Delta</t>
+  </si>
+  <si>
+    <t>Flattened data</t>
+  </si>
+  <si>
+    <t>Sales ($k)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0\F"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="20"/>
       <color theme="1"/>
@@ -1409,13 +1714,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="36"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1496,8 +1794,35 @@
       <color rgb="FF00B0F0"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="30.6"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="30.6"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1528,6 +1853,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1538,11 +1875,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1574,17 +1910,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1619,15 +1953,15 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1641,7 +1975,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1659,16 +1993,19 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2123,10 +2460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7BC517-33D7-4CFE-96CB-C5E535ADE8E8}">
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="47.4" x14ac:dyDescent="0.9"/>
@@ -2135,32 +2472,36 @@
     <col min="2" max="16384" width="8.5859375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
-    <row r="2" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="2" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.9">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.9">
+    <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.9">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.9">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.9">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.9">
+      <c r="M6" s="5">
+        <f>LEN(B6)-LEN(SUBSTITUTE(B6,"H",""))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.9">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.9">
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.9">
       <c r="B10" s="7">
         <f>LEN(B6)-LEN(SUBSTITUTE(B6,"A",""))</f>
         <v>5</v>
@@ -2169,10 +2510,1283 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.9">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.9">
       <c r="B13" s="5">
         <f>LEN(B6)-LEN(SUBSTITUTE(B6,"A",""))</f>
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07696C6-41DC-4867-AC84-E6097DFBBB4D}">
+  <dimension ref="A1:K69"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C56" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="47.4" x14ac:dyDescent="0.9"/>
+  <cols>
+    <col min="1" max="1" width="2.5859375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="2.5859375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.3515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5859375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8.5859375" style="5"/>
+    <col min="10" max="10" width="6.1171875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.5859375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A1" s="51"/>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="B4" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="C5" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="C6" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="7" cm="1">
+        <f t="array" ref="F6">INDEX(Data_2D,
+     _xlfn.XMATCH(C6,Team_2D),
+     _xlfn.XMATCH(E6,Month_2D))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="B8" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="C9" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="E10" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="C11" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="36" cm="1">
+        <f t="array" ref="E11:G12">INDEX(Data_2D,
+     _xlfn.XMATCH(C11:C12,Team_2D),
+     _xlfn.XMATCH(E10:G10,Month_2D))</f>
+        <v>37</v>
+      </c>
+      <c r="F11" s="5">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="C12" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="36">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5">
+        <v>28</v>
+      </c>
+      <c r="G12" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="C13" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="B15" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.9">
+      <c r="C16" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="C17" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="C18" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="C19" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="5" t="str" cm="1">
+        <f t="array" ref="D19">_xlfn.CONCAT(IF(D18=Data_2D,Team_2D,""))</f>
+        <v>Team Beta</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="C20" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D20" s="5" t="str" cm="1">
+        <f t="array" ref="D20">_xlfn.CONCAT(IF(D18=Data_2D,Month_2D,""))</f>
+        <v>Oct</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="C22" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="B24" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="C25" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="C26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="C27" s="5">
+        <v>16</v>
+      </c>
+      <c r="D27" s="5" t="str" cm="1">
+        <f t="array" ref="D27:D30">_xlfn.XLOOKUP(C27:C30,_xlfn.ANCHORARRAY('D8 ex'!$C$10),_xlfn.ANCHORARRAY('D8 ex'!$A$10))</f>
+        <v>Team Beta</v>
+      </c>
+      <c r="G27" s="5" t="str" cm="1">
+        <f t="array" ref="G27:G30">_xlfn.XLOOKUP(C27:C30,_xlfn.ANCHORARRAY('D8 ex'!$C$10),_xlfn.ANCHORARRAY('D8 ex'!$B$10))</f>
+        <v>Jan</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="C28" s="5">
+        <v>34</v>
+      </c>
+      <c r="D28" s="5" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="G28" s="5" t="str">
+        <v>Jul</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="C29" s="5">
+        <v>27</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="G29" s="5" t="str">
+        <v>Aug</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="C30" s="5">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="G30" s="5" t="str">
+        <v>Jan</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.9">
+      <c r="B32" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C33" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C34" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C35" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C37" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C38" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C39" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C41" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C42" s="10"/>
+      <c r="D42" s="53" cm="1">
+        <f t="array" ref="D42:E42">_xlfn.SEQUENCE(,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="53">
+        <v>2</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C43" s="54" cm="1">
+        <f t="array" ref="C43:C45">_xlfn.SEQUENCE(3)</f>
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" cm="1">
+        <f t="array" ref="D43:E45">_xlfn.ANCHORARRAY(D42)+_xlfn.ANCHORARRAY(C43)</f>
+        <v>2</v>
+      </c>
+      <c r="E43" s="7">
+        <v>3</v>
+      </c>
+      <c r="G43" s="53">
+        <v>1</v>
+      </c>
+      <c r="H43" s="53">
+        <v>2</v>
+      </c>
+      <c r="J43" s="54">
+        <v>1</v>
+      </c>
+      <c r="K43" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C44" s="54">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7">
+        <v>4</v>
+      </c>
+      <c r="G44" s="53">
+        <v>1</v>
+      </c>
+      <c r="H44" s="53">
+        <v>2</v>
+      </c>
+      <c r="J44" s="54">
+        <v>2</v>
+      </c>
+      <c r="K44" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C45" s="54">
+        <v>3</v>
+      </c>
+      <c r="D45" s="7">
+        <v>4</v>
+      </c>
+      <c r="E45" s="7">
+        <v>5</v>
+      </c>
+      <c r="G45" s="53">
+        <v>1</v>
+      </c>
+      <c r="H45" s="53">
+        <v>2</v>
+      </c>
+      <c r="J45" s="54">
+        <v>3</v>
+      </c>
+      <c r="K45" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C47" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.9">
+      <c r="C48" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.9">
+      <c r="C49" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.9">
+      <c r="C51" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.9">
+      <c r="C52" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.9">
+      <c r="C53" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.9">
+      <c r="B55" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.9">
+      <c r="C56" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.9">
+      <c r="C57" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="55">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.9">
+      <c r="C59" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.9">
+      <c r="C60" s="5" t="str" cm="1">
+        <f t="array" ref="C60:C63">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY('D8 ex'!$A$10),_xlfn.ANCHORARRAY('D8 ex'!$C$10)=$D$57)</f>
+        <v>Team Beta</v>
+      </c>
+      <c r="F60" s="5" t="str" cm="1">
+        <f t="array" ref="F60:F63">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY('D8 ex'!$B$10),_xlfn.ANCHORARRAY('D8 ex'!$C$10)=$D$57)</f>
+        <v>Mar</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.9">
+      <c r="C61" s="5" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="F61" s="5" t="str">
+        <v>Sep</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.9">
+      <c r="C62" s="5" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="F62" s="5" t="str">
+        <v>Nov</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.9">
+      <c r="C63" s="5" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="F63" s="5" t="str">
+        <v>Nov</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="B65" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="C66" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="C67" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E67" s="56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="C69" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E69" s="5" t="str" cm="1">
+        <f t="array" ref="E69">IFERROR(_xlfn.TEXTJOIN(", ",,_xlfn.UNIQUE(_xlfn.TOCOL(IF(Data_2D&gt;=E67,Month_2D,NA()),2,1))),"None")</f>
+        <v>Feb, Jun, Sep</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EE8F1C-EAAA-4794-892B-BC309416F003}">
+  <dimension ref="A1:M57"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.9375" defaultRowHeight="27.45" customHeight="1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="11.64453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.46875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.9375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.87890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.76171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.87890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.41015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.46875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.64453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="47.4" x14ac:dyDescent="0.9">
+      <c r="A1" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="57">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>37</v>
+      </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>27</v>
+      </c>
+      <c r="J5" s="57">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>29</v>
+      </c>
+      <c r="L5" s="57">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>23</v>
+      </c>
+      <c r="K6">
+        <v>26</v>
+      </c>
+      <c r="L6" s="57">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="47.4" x14ac:dyDescent="0.9">
+      <c r="A8" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" t="str" cm="1">
+        <f t="array" ref="A10:A57">_xlfn.TOCOL(IF(Data_2D&lt;&gt;"|",Team_2D))</f>
+        <v>Team Alpha</v>
+      </c>
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10:B57">_xlfn.TOCOL(IF(Data_2D&lt;&gt;"|",Month_2D))</f>
+        <v>Jan</v>
+      </c>
+      <c r="C10" cm="1">
+        <f t="array" ref="C10:C57">_xlfn.TOCOL(Data_2D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" t="str">
+        <v>Team Alpha</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" t="str">
+        <v>Team Alpha</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" t="str">
+        <v>Team Alpha</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Apr</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" t="str">
+        <v>Team Alpha</v>
+      </c>
+      <c r="B14" t="str">
+        <v>May</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" t="str">
+        <v>Team Alpha</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Jun</v>
+      </c>
+      <c r="C15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" t="str">
+        <v>Team Alpha</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Jul</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" t="str">
+        <v>Team Alpha</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Aug</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" t="str">
+        <v>Team Alpha</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Sep</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" t="str">
+        <v>Team Alpha</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Oct</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" t="str">
+        <v>Team Alpha</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Nov</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" t="str">
+        <v>Team Alpha</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Dec</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Jan</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Apr</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="B26" t="str">
+        <v>May</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Jun</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Jul</v>
+      </c>
+      <c r="C28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Aug</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Sep</v>
+      </c>
+      <c r="C30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Oct</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Nov</v>
+      </c>
+      <c r="C32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" t="str">
+        <v>Team Beta</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Dec</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Jan</v>
+      </c>
+      <c r="C34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A35" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="C35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A36" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A37" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Apr</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A38" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="B38" t="str">
+        <v>May</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A39" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Jun</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A40" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Jul</v>
+      </c>
+      <c r="C40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A41" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Aug</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A42" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Sep</v>
+      </c>
+      <c r="C42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A43" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Oct</v>
+      </c>
+      <c r="C43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A44" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Nov</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A45" t="str">
+        <v>Team Gamma</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Dec</v>
+      </c>
+      <c r="C45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A46" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Jan</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A47" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="C47">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A48" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="C48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A49" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Apr</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A50" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="B50" t="str">
+        <v>May</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A51" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Jun</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A52" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Jul</v>
+      </c>
+      <c r="C52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A53" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Aug</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A54" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Sep</v>
+      </c>
+      <c r="C54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A55" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Oct</v>
+      </c>
+      <c r="C55">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A56" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Nov</v>
+      </c>
+      <c r="C56">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A57" t="str">
+        <v>Team Delta</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Dec</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2184,8 +3798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE10344-4D08-487F-9E7B-96862551FFB8}">
   <dimension ref="B2:Q46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" topLeftCell="L8" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
@@ -2950,7 +4564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D6A707-6A04-4D17-8BE1-60335C28A937}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="86" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="47.4" x14ac:dyDescent="0.9"/>
   <cols>
@@ -3087,6 +4703,10 @@
       <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="I15" s="5" t="str" cm="1">
+        <f t="array" ref="I15:I39">MID(B6,_xlfn.SEQUENCE(LEN(B6)),1)</f>
+        <v>W</v>
+      </c>
       <c r="N15" s="5" t="str">
         <v>o</v>
       </c>
@@ -3098,6 +4718,9 @@
       <c r="B16" s="5" t="str">
         <v>h</v>
       </c>
+      <c r="I16" s="5" t="str">
+        <v>h</v>
+      </c>
       <c r="N16" s="5" t="str">
         <v>r</v>
       </c>
@@ -3109,6 +4732,9 @@
       <c r="B17" s="5" t="str">
         <v>e</v>
       </c>
+      <c r="I17" s="5" t="str">
+        <v>e</v>
+      </c>
       <c r="N17" s="5" t="str">
         <v>e</v>
       </c>
@@ -3120,6 +4746,9 @@
       <c r="B18" s="5" t="str">
         <v>r</v>
       </c>
+      <c r="I18" s="5" t="str">
+        <v>r</v>
+      </c>
       <c r="N18" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
@@ -3131,6 +4760,9 @@
       <c r="B19" s="5" t="str">
         <v>e</v>
       </c>
+      <c r="I19" s="5" t="str">
+        <v>e</v>
+      </c>
       <c r="N19" s="5" t="str">
         <v>a</v>
       </c>
@@ -3142,6 +4774,9 @@
       <c r="B20" s="5" t="str">
         <v>f</v>
       </c>
+      <c r="I20" s="5" t="str">
+        <v>f</v>
+      </c>
       <c r="N20" s="5" t="str">
         <v>r</v>
       </c>
@@ -3153,6 +4788,9 @@
       <c r="B21" s="5" t="str">
         <v>o</v>
       </c>
+      <c r="I21" s="5" t="str">
+        <v>o</v>
+      </c>
       <c r="N21" s="5" t="str">
         <v>t</v>
       </c>
@@ -3164,6 +4802,9 @@
       <c r="B22" s="5" t="str">
         <v>r</v>
       </c>
+      <c r="I22" s="5" t="str">
+        <v>r</v>
+      </c>
       <c r="N22" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
@@ -3175,6 +4816,9 @@
       <c r="B23" s="5" t="str">
         <v>e</v>
       </c>
+      <c r="I23" s="5" t="str">
+        <v>e</v>
+      </c>
       <c r="N23" s="5" t="str">
         <v>t</v>
       </c>
@@ -3186,6 +4830,9 @@
       <c r="B24" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="I24" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="N24" s="5" t="str">
         <v>h</v>
       </c>
@@ -3197,6 +4844,9 @@
       <c r="B25" s="5" t="str">
         <v>a</v>
       </c>
+      <c r="I25" s="5" t="str">
+        <v>a</v>
+      </c>
       <c r="N25" s="5" t="str">
         <v>o</v>
       </c>
@@ -3208,6 +4858,9 @@
       <c r="B26" s="5" t="str">
         <v>r</v>
       </c>
+      <c r="I26" s="5" t="str">
+        <v>r</v>
+      </c>
       <c r="N26" s="5" t="str">
         <v>u</v>
       </c>
@@ -3219,6 +4872,9 @@
       <c r="B27" s="5" t="str">
         <v>t</v>
       </c>
+      <c r="I27" s="5" t="str">
+        <v>t</v>
+      </c>
       <c r="N27" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
@@ -3230,6 +4886,9 @@
       <c r="B28" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="I28" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="N28" s="5" t="str">
         <v>R</v>
       </c>
@@ -3241,6 +4900,9 @@
       <c r="B29" s="5" t="str">
         <v>t</v>
       </c>
+      <c r="I29" s="5" t="str">
+        <v>t</v>
+      </c>
       <c r="N29" s="5" t="str">
         <v>o</v>
       </c>
@@ -3252,6 +4914,9 @@
       <c r="B30" s="5" t="str">
         <v>h</v>
       </c>
+      <c r="I30" s="5" t="str">
+        <v>h</v>
+      </c>
       <c r="N30" s="5" t="str">
         <v>m</v>
       </c>
@@ -3263,6 +4928,9 @@
       <c r="B31" s="5" t="str">
         <v>o</v>
       </c>
+      <c r="I31" s="5" t="str">
+        <v>o</v>
+      </c>
       <c r="N31" s="5" t="str">
         <v>e</v>
       </c>
@@ -3274,6 +4942,9 @@
       <c r="B32" s="5" t="str">
         <v>u</v>
       </c>
+      <c r="I32" s="5" t="str">
+        <v>u</v>
+      </c>
       <c r="N32" s="5" t="str">
         <v>o</v>
       </c>
@@ -3285,6 +4956,9 @@
       <c r="B33" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
+      <c r="I33" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="N33" s="5" t="str">
         <v>?</v>
       </c>
@@ -3296,6 +4970,9 @@
       <c r="B34" s="5" t="str">
         <v>R</v>
       </c>
+      <c r="I34" s="5" t="str">
+        <v>R</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.9">
       <c r="A35" s="5">
@@ -3304,6 +4981,9 @@
       <c r="B35" s="5" t="str">
         <v>o</v>
       </c>
+      <c r="I35" s="5" t="str">
+        <v>o</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.9">
       <c r="A36" s="5">
@@ -3312,6 +4992,9 @@
       <c r="B36" s="5" t="str">
         <v>m</v>
       </c>
+      <c r="I36" s="5" t="str">
+        <v>m</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.9">
       <c r="A37" s="5">
@@ -3320,6 +5003,9 @@
       <c r="B37" s="5" t="str">
         <v>e</v>
       </c>
+      <c r="I37" s="5" t="str">
+        <v>e</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.9">
       <c r="A38" s="5">
@@ -3328,12 +5014,18 @@
       <c r="B38" s="5" t="str">
         <v>o</v>
       </c>
+      <c r="I38" s="5" t="str">
+        <v>o</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.9">
       <c r="A39" s="5">
         <v>25</v>
       </c>
       <c r="B39" s="5" t="str">
+        <v>?</v>
+      </c>
+      <c r="I39" s="5" t="str">
         <v>?</v>
       </c>
     </row>
@@ -3346,12 +5038,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E04819-960E-4C2B-B8F1-D68BF34500D6}">
   <dimension ref="B2:T46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="2.5859375" customWidth="1"/>
-    <col min="2" max="2" width="81.29296875" customWidth="1"/>
+    <col min="2" max="2" width="127.76171875" customWidth="1"/>
     <col min="4" max="4" width="4.5859375" customWidth="1"/>
     <col min="6" max="6" width="4.5859375" customWidth="1"/>
     <col min="8" max="8" width="4.5859375" customWidth="1"/>
@@ -3466,6 +5160,10 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.5">
+      <c r="B13" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(I12)</f>
+        <v>=MID(B10,SEQUENCE(LEN(B10)/2,,,2),2)</v>
+      </c>
       <c r="C13">
         <v>32</v>
       </c>
@@ -3518,6 +5216,10 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.5">
+      <c r="B15" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(K14)</f>
+        <v>=MID(B10,SEQUENCE(LEN(B10)/4,,4,4),1)</v>
+      </c>
       <c r="C15">
         <v>104</v>
       </c>
@@ -3583,7 +5285,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
+      <c r="B17" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(M16)</f>
+        <v>=LET(threes,MID(B10,SEQUENCE(LEN(B10)-2),3),
+     uniqDice,MAP(threes,LAMBDA(triple,ROWS(UNIQUE(MID(triple,SEQUENCE(3),1))))),
+     SUM(IF(uniqDice&lt;3,1,0)))</v>
+      </c>
       <c r="C17">
         <v>116</v>
       </c>
@@ -3609,7 +5317,7 @@
         <v>⚀</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C18">
         <v>32</v>
       </c>
@@ -3635,7 +5343,7 @@
         <v>⚀</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C19" t="e">
         <v>#VALUE!</v>
       </c>
@@ -3661,7 +5369,7 @@
         <v>⚃</v>
       </c>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C20">
         <v>56481</v>
       </c>
@@ -3687,7 +5395,7 @@
         <v>⚀</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C21">
         <v>32</v>
       </c>
@@ -3713,7 +5421,11 @@
         <v>⚀</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.5">
+      <c r="B22" t="str" cm="1">
+        <f t="array" ref="B22:B31">MID(B10,_xlfn.SEQUENCE(LEN(B10)/4,,1,4),4)</f>
+        <v>⚂⚃⚀⚅</v>
+      </c>
       <c r="C22">
         <v>116</v>
       </c>
@@ -3739,7 +5451,10 @@
         <v>⚁</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.5">
+      <c r="B23" t="str">
+        <v>⚂⚂⚂⚁</v>
+      </c>
       <c r="C23">
         <v>104</v>
       </c>
@@ -3765,7 +5480,10 @@
         <v>⚃</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.5">
+      <c r="B24" t="str">
+        <v>⚁⚂⚃⚂</v>
+      </c>
       <c r="C24">
         <v>114</v>
       </c>
@@ -3785,7 +5503,10 @@
         <v>⚅</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.5">
+      <c r="B25" t="str">
+        <v>⚃⚃⚄⚀</v>
+      </c>
       <c r="C25">
         <v>111</v>
       </c>
@@ -3805,7 +5526,10 @@
         <v>⚀</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.5">
+      <c r="B26" t="str">
+        <v>⚄⚁⚁⚀</v>
+      </c>
       <c r="C26">
         <v>117</v>
       </c>
@@ -3825,7 +5549,10 @@
         <v>⚅</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.5">
+      <c r="B27" t="str">
+        <v>⚃⚂⚅⚃</v>
+      </c>
       <c r="C27">
         <v>103</v>
       </c>
@@ -3845,7 +5572,10 @@
         <v>⚀</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.5">
+      <c r="B28" t="str">
+        <v>⚁⚅⚅⚀</v>
+      </c>
       <c r="C28">
         <v>104</v>
       </c>
@@ -3865,7 +5595,10 @@
         <v>⚁</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.5">
+      <c r="B29" t="str">
+        <v>⚃⚅⚅⚀</v>
+      </c>
       <c r="C29">
         <v>32</v>
       </c>
@@ -3885,7 +5618,10 @@
         <v>⚁</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.5">
+      <c r="B30" t="str">
+        <v>⚃⚁⚃⚁</v>
+      </c>
       <c r="C30">
         <v>121</v>
       </c>
@@ -3905,7 +5641,10 @@
         <v>⚂</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.5">
+      <c r="B31" t="str">
+        <v>⚁⚂⚄⚃</v>
+      </c>
       <c r="C31">
         <v>111</v>
       </c>
@@ -3925,7 +5664,7 @@
         <v>⚃</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.5">
       <c r="C32">
         <v>110</v>
       </c>
@@ -4011,14 +5750,14 @@
   <dimension ref="B1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="47.4" x14ac:dyDescent="0.9"/>
   <cols>
     <col min="1" max="1" width="2.5859375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.41015625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.87890625" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.5859375" style="5"/>
     <col min="4" max="4" width="12.41015625" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.64453125" style="5" bestFit="1" customWidth="1"/>
@@ -4210,8 +5949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E75372-233B-46C3-B60F-2EB456B82444}">
   <dimension ref="B2:N166"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
@@ -4227,12 +5966,12 @@
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D3" t="s">
         <v>57</v>
       </c>
@@ -4246,12 +5985,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="3" t="b">
+        <f>EXACT(B4,UPPER(B4))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <f>EXACT(B4,LOWER(B4))</f>
+        <v>0</v>
+      </c>
       <c r="G4" s="4" t="b" cm="1">
         <f t="array" ref="G4:G10">EXACT(B4:B10,UPPER(B4:B10))</f>
         <v>0</v>
@@ -4261,12 +6006,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3" t="b">
+        <f t="shared" ref="D5:D10" si="0">EXACT(B5,UPPER(B5))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <f t="shared" ref="E5:E10" si="1">EXACT(B5,LOWER(B5))</f>
+        <v>0</v>
+      </c>
       <c r="G5" s="4" t="b">
         <v>0</v>
       </c>
@@ -4274,12 +6025,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G6" s="4" t="b">
         <v>1</v>
       </c>
@@ -4287,12 +6044,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="G7" s="4" t="b">
         <v>0</v>
       </c>
@@ -4300,12 +6063,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G8" s="4" t="b">
         <v>0</v>
       </c>
@@ -4313,12 +6082,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="G9" s="4" t="b">
         <v>0</v>
       </c>
@@ -4326,12 +6101,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G10" s="4" t="b">
         <v>1</v>
       </c>
@@ -4339,28 +6120,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G14" s="4" t="str">
-        <f t="shared" ref="G14" si="0">IF(EXACT(LOWER(B14),UPPER(B14)),"Non-letter",IF(EXACT(B14,LOWER(B14)),"Lower case","Upper case"))</f>
+        <f t="shared" ref="G14" si="2">IF(EXACT(LOWER(B14),UPPER(B14)),"Non-letter",IF(EXACT(B14,LOWER(B14)),"Lower case","Upper case"))</f>
         <v>Upper case</v>
       </c>
       <c r="J14" t="str" cm="1">
         <f t="array" ref="J14:J28">_xlfn.MAP(B14:B28,_xlfn.LAMBDA(_xlpm.a,IF(_xlpm.a&lt;"a","Non-letter",IF(CODE(_xlpm.a)&gt;90,"Lower case","Upper case"))))</f>
         <v>Upper case</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="L14" t="str">
+        <f>UPPER(B14)</f>
+        <v>E</v>
+      </c>
+      <c r="M14" t="str">
+        <f>LOWER(B14)</f>
+        <v>e</v>
+      </c>
+      <c r="N14" t="b">
+        <f>EXACT(L14,M14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B15" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3"/>
       <c r="G15" s="4" t="str">
@@ -4370,186 +6165,357 @@
       <c r="J15" t="str">
         <v>Upper case</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L28" si="3">UPPER(B15)</f>
+        <v>Y</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" ref="M15:M28" si="4">LOWER(B15)</f>
+        <v>y</v>
+      </c>
+      <c r="N15" t="b">
+        <f t="shared" ref="N15:N28" si="5">EXACT(L15,M15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B16" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3"/>
       <c r="G16" s="4" t="str">
-        <f t="shared" ref="G16:G28" si="1">IF(EXACT(LOWER(B16),UPPER(B16)),"Non-letter",IF(EXACT(B16,LOWER(B16)),"Lower case","Upper case"))</f>
+        <f t="shared" ref="G16:G28" si="6">IF(EXACT(LOWER(B16),UPPER(B16)),"Non-letter",IF(EXACT(B16,LOWER(B16)),"Lower case","Upper case"))</f>
         <v>Lower case</v>
       </c>
       <c r="J16" t="str">
         <v>Lower case</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L16" t="str">
+        <f t="shared" si="3"/>
+        <v>U</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="4"/>
+        <v>u</v>
+      </c>
+      <c r="N16" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B17" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3"/>
       <c r="G17" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Lower case</v>
       </c>
       <c r="J17" t="str">
         <v>Lower case</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L17" t="str">
+        <f t="shared" si="3"/>
+        <v>P</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="4"/>
+        <v>p</v>
+      </c>
+      <c r="N17" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B18" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="3"/>
       <c r="G18" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Upper case</v>
       </c>
       <c r="J18" t="str">
         <v>Upper case</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L18" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="4"/>
+        <v>f</v>
+      </c>
+      <c r="N18" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B19" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="3"/>
       <c r="G19" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Non-letter</v>
       </c>
       <c r="J19" t="str">
         <v>Non-letter</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N19" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B20" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="3"/>
       <c r="G20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Lower case</v>
       </c>
       <c r="J20" t="str">
         <v>Lower case</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L20" t="str">
+        <f t="shared" si="3"/>
+        <v>K</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="4"/>
+        <v>k</v>
+      </c>
+      <c r="N20" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B21" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="3"/>
       <c r="G21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Non-letter</v>
       </c>
       <c r="J21" t="str">
         <v>Non-letter</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v>{</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="4"/>
+        <v>{</v>
+      </c>
+      <c r="N21" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B22" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3"/>
       <c r="G22" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Lower case</v>
       </c>
       <c r="J22" t="str">
         <v>Lower case</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="4"/>
+        <v>b</v>
+      </c>
+      <c r="N22" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B23" s="13">
         <v>2</v>
       </c>
       <c r="D23" s="3"/>
       <c r="G23" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Non-letter</v>
       </c>
       <c r="J23" t="str">
         <v>Non-letter</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N23" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B24" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="3"/>
       <c r="G24" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Non-letter</v>
       </c>
       <c r="J24" t="str">
         <v>Non-letter</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L24" t="str">
+        <f t="shared" si="3"/>
+        <v>$</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="4"/>
+        <v>$</v>
+      </c>
+      <c r="N24" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B25" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3"/>
       <c r="G25" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Non-letter</v>
       </c>
       <c r="J25" t="str">
         <v>Non-letter</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L25" t="str">
+        <f t="shared" si="3"/>
+        <v>%</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="4"/>
+        <v>%</v>
+      </c>
+      <c r="N25" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B26" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="3"/>
       <c r="G26" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Upper case</v>
       </c>
       <c r="J26" t="str">
         <v>Upper case</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L26" t="str">
+        <f t="shared" si="3"/>
+        <v>G</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="4"/>
+        <v>g</v>
+      </c>
+      <c r="N26" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B27" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="3"/>
       <c r="G27" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Upper case</v>
       </c>
       <c r="J27" t="str">
         <v>Upper case</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L27" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="4"/>
+        <v>a</v>
+      </c>
+      <c r="N27" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B28" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="3"/>
       <c r="G28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>Lower case</v>
       </c>
       <c r="J28" t="str">
         <v>Lower case</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="L28" t="str">
+        <f t="shared" si="3"/>
+        <v>W</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="4"/>
+        <v>w</v>
+      </c>
+      <c r="N28" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B32" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="D32" s="3" cm="1">
+        <f t="array" ref="D32">_xlfn.XMATCH(TRUE,EXACT(B32,$B$37:$B$49))</f>
+        <v>3</v>
+      </c>
       <c r="E32" s="14" cm="1">
         <f t="array" ref="E32:E35">_xlfn.XMATCH(B32:B35,B37:B49)</f>
         <v>3</v>
@@ -4569,9 +6535,12 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="D33" s="3" cm="1">
+        <f t="array" ref="D33">_xlfn.XMATCH(TRUE,EXACT(B33,$B$37:$B$49))</f>
+        <v>13</v>
+      </c>
       <c r="E33" s="14">
         <v>6</v>
       </c>
@@ -4590,9 +6559,12 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D34" s="3" cm="1">
+        <f t="array" ref="D34">_xlfn.XMATCH(TRUE,EXACT(B34,$B$37:$B$49))</f>
+        <v>5</v>
+      </c>
       <c r="E34" s="14">
         <v>2</v>
       </c>
@@ -4611,9 +6583,12 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="D35" s="3" cm="1">
+        <f t="array" ref="D35">_xlfn.XMATCH(TRUE,EXACT(B35,$B$37:$B$49))</f>
+        <v>7</v>
+      </c>
       <c r="E35" s="14">
         <v>1</v>
       </c>
@@ -4632,94 +6607,94 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B38" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B40" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B49" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.5">
       <c r="G52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H52" t="s">
+        <v>98</v>
+      </c>
+      <c r="J52" t="s">
         <v>97</v>
       </c>
-      <c r="J52" t="s">
-        <v>96</v>
-      </c>
       <c r="K52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B53" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E53" s="13"/>
       <c r="G53" s="3"/>
@@ -4743,10 +6718,10 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B54" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E54" s="13"/>
       <c r="G54" s="3"/>
@@ -4768,10 +6743,10 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B55" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E55" s="13"/>
       <c r="G55" s="3"/>
@@ -4793,10 +6768,10 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B56" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" s="13"/>
       <c r="G56" s="3"/>
@@ -4818,23 +6793,23 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.5">
       <c r="E60" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B61" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E61" t="b">
         <f>B61=D61</f>
@@ -4984,7 +6959,7 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B72" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.5">
@@ -5251,7 +7226,7 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B101" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.5">
@@ -5770,8 +7745,8 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="47.4" x14ac:dyDescent="0.9"/>
@@ -5788,123 +7763,123 @@
     <row r="1" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="2" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.9">
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.9">
       <c r="B4" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="6" spans="2:6" x14ac:dyDescent="0.9">
       <c r="B6" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.9">
       <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.9">
       <c r="B8" s="9"/>
       <c r="C8" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="10" spans="2:6" x14ac:dyDescent="0.9">
       <c r="B10" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.9">
       <c r="D11" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.9">
       <c r="D12" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.9">
       <c r="D13" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.9">
       <c r="D14" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.9">
       <c r="D15" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="17" spans="1:9" x14ac:dyDescent="0.9">
       <c r="B17" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.9">
       <c r="D18" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.9">
       <c r="D19" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="5" cm="1">
         <f t="array" ref="G19:G21">COUNTIF(D19:D21,{"=&lt;&gt;A";"=&gt;C";"=&lt;=M"})</f>
@@ -5921,13 +7896,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.9">
       <c r="D20" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -5941,13 +7916,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.9">
       <c r="D21" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -5962,65 +7937,65 @@
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="23" spans="1:9" x14ac:dyDescent="0.9">
       <c r="B23" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.9">
       <c r="D24" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.9">
       <c r="D25" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A26" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="28" spans="1:9" x14ac:dyDescent="0.9">
       <c r="D28" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.9">
       <c r="D29" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="31" spans="1:9" x14ac:dyDescent="0.9">
       <c r="B31" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.9">
       <c r="D32" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -6028,21 +8003,21 @@
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="34" spans="2:8" x14ac:dyDescent="0.9">
       <c r="D34" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.9">
       <c r="D35" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.9">
       <c r="D36" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -6056,7 +8031,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.9">
       <c r="D38" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -6064,25 +8039,25 @@
     <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="40" spans="2:8" x14ac:dyDescent="0.9">
       <c r="B40" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.9">
       <c r="D41" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.9">
       <c r="D42" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.9">
       <c r="D43" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E43" s="19">
         <v>459366</v>
@@ -6102,7 +8077,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.9">
       <c r="D44" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E44" s="19">
         <v>657619</v>
@@ -6116,7 +8091,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.9">
       <c r="D45" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E45" s="19">
         <v>358223</v>
@@ -6130,7 +8105,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.9">
       <c r="D46" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E46" s="19">
         <v>891842</v>
@@ -6144,7 +8119,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.9">
       <c r="D47" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E47" s="19">
         <v>92593</v>
@@ -6158,7 +8133,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.9">
       <c r="D48" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E48" s="19">
         <v>716899</v>
@@ -6172,7 +8147,7 @@
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D49" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E49" s="19">
         <v>16425</v>
@@ -6186,7 +8161,7 @@
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D50" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E50" s="19">
         <v>521158</v>
@@ -6200,7 +8175,7 @@
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D51" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E51" s="19">
         <v>581028</v>
@@ -6214,7 +8189,7 @@
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D52" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E52" s="19">
         <v>814805</v>
@@ -6228,7 +8203,7 @@
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D53" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E53" s="19">
         <v>896841</v>
@@ -6239,7 +8214,7 @@
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D54" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E54" s="19">
         <v>532668</v>
@@ -6250,7 +8225,7 @@
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D55" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E55" s="19">
         <v>99975</v>
@@ -6261,7 +8236,7 @@
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D56" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E56" s="19">
         <v>466242</v>
@@ -6272,7 +8247,7 @@
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D57" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E57" s="19">
         <v>816756</v>
@@ -6283,7 +8258,7 @@
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D58" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E58" s="19">
         <v>773352</v>
@@ -6294,7 +8269,7 @@
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D59" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E59" s="19">
         <v>815227</v>
@@ -6305,7 +8280,7 @@
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D60" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E60" s="19">
         <v>499180</v>
@@ -6316,7 +8291,7 @@
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D61" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E61" s="19">
         <v>920444</v>
@@ -6327,7 +8302,7 @@
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D62" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E62" s="19">
         <v>632459</v>
@@ -6338,7 +8313,7 @@
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.9">
       <c r="D64" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E64" s="19">
         <f>SUMIFS(E43:E62,D43:D62,"&lt;&gt;*ME*")</f>
@@ -6352,11 +8327,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9B79FD-9C37-45A8-91D7-5A2B44D9E03B}">
-  <dimension ref="B1:J102"/>
+  <dimension ref="B1:Q104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="47.4" x14ac:dyDescent="0.9"/>
@@ -6372,62 +8347,62 @@
     <row r="1" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="2" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.9">
       <c r="B2" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.9">
       <c r="B4" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.9">
       <c r="C5" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.9">
-      <c r="C6" s="43">
+      <c r="C6" s="38">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D6" s="26" t="str">
+      <c r="D6" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C6)</f>
         <v>=1</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.9">
-      <c r="C7" s="43" t="str">
+      <c r="C7" s="38" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="D7" s="26" t="str">
+      <c r="D7" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C7)</f>
         <v>="1"</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.9">
-      <c r="C8" s="43" t="b">
+      <c r="C8" s="38" t="b">
         <f>C6=C7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="26" t="str">
+      <c r="D8" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C8)</f>
         <v>=C6=C7</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.9">
-      <c r="C9" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="38" t="s">
         <v>170</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="11" spans="2:6" x14ac:dyDescent="0.9">
       <c r="C11" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.9">
@@ -6435,7 +8410,7 @@
         <f>LEFT("123ABC",3)</f>
         <v>123</v>
       </c>
-      <c r="D12" s="26" t="str">
+      <c r="D12" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C12)</f>
         <v>=LEFT("123ABC",3)</v>
       </c>
@@ -6445,7 +8420,7 @@
         <f>C12=123</f>
         <v>0</v>
       </c>
-      <c r="D13" s="26" t="str">
+      <c r="D13" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C13)</f>
         <v>=C12=123</v>
       </c>
@@ -6453,7 +8428,7 @@
     <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="15" spans="2:6" x14ac:dyDescent="0.9">
       <c r="C15" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.9">
@@ -6461,12 +8436,12 @@
         <f>1+"1"</f>
         <v>2</v>
       </c>
-      <c r="D16" s="26" t="str">
+      <c r="D16" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C16)</f>
         <v>=1+"1"</v>
       </c>
-      <c r="F16" s="41" t="s">
-        <v>173</v>
+      <c r="F16" s="36" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.9">
@@ -6474,18 +8449,18 @@
         <f>"A"&amp;1</f>
         <v>A1</v>
       </c>
-      <c r="D17" s="26" t="str">
+      <c r="D17" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C17)</f>
         <v>="A"&amp;1</v>
       </c>
-      <c r="F17" s="41" t="s">
-        <v>174</v>
+      <c r="F17" s="36" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="19" spans="2:8" x14ac:dyDescent="0.9">
       <c r="C19" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.9">
@@ -6493,12 +8468,12 @@
         <f>SUM(C6:C9)</f>
         <v>1</v>
       </c>
-      <c r="D20" s="26" t="str">
+      <c r="D20" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C20)</f>
         <v>=SUM(C6:C9)</v>
       </c>
-      <c r="G20" s="41" t="s">
-        <v>176</v>
+      <c r="G20" s="36" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.9">
@@ -6506,12 +8481,12 @@
         <f>SUM(1,"1")</f>
         <v>2</v>
       </c>
-      <c r="D21" s="26" t="str">
+      <c r="D21" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C21)</f>
         <v>=SUM(1,"1")</v>
       </c>
-      <c r="G21" s="41" t="s">
-        <v>177</v>
+      <c r="G21" s="36" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.9">
@@ -6519,18 +8494,18 @@
         <f>_xlfn.XMATCH(1,C7:C9)</f>
         <v>#N/A</v>
       </c>
-      <c r="D22" s="26" t="str">
+      <c r="D22" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C22)</f>
         <v>=XMATCH(1,C7:C9)</v>
       </c>
-      <c r="H22" s="41" t="s">
-        <v>178</v>
+      <c r="H22" s="36" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="24" spans="2:8" x14ac:dyDescent="0.9">
       <c r="C24" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.9">
@@ -6542,12 +8517,12 @@
         <f>C25*1</f>
         <v>123</v>
       </c>
-      <c r="E25" s="26" t="str">
+      <c r="E25" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D25)</f>
         <v>=C25*1</v>
       </c>
-      <c r="G25" s="41" t="s">
-        <v>180</v>
+      <c r="G25" s="36" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.9">
@@ -6559,12 +8534,12 @@
         <f>C26+0</f>
         <v>123</v>
       </c>
-      <c r="E26" s="26" t="str">
+      <c r="E26" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D26)</f>
         <v>=C26+0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
@@ -6576,270 +8551,270 @@
         <f>C28&amp;""</f>
         <v>123</v>
       </c>
-      <c r="E28" s="26" t="str">
+      <c r="E28" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D28)</f>
         <v>=C28&amp;""</v>
       </c>
-      <c r="G28" s="41" t="s">
-        <v>182</v>
+      <c r="G28" s="36" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.9">
       <c r="G29" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="31" spans="2:8" x14ac:dyDescent="0.9">
       <c r="B31" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.9">
       <c r="C32" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.9">
-      <c r="C33" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="43" t="s">
+      <c r="C33" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="D33" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="E33" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="F33" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
+      <c r="G33" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.9">
-      <c r="C34" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="42" t="s">
+      <c r="C34" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="D34" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="E34" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="F34" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="G34" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="I34" s="49" t="s">
+      <c r="H34" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="J34" s="42" t="s">
+      <c r="I34" s="44" t="s">
         <v>198</v>
       </c>
+      <c r="J34" s="37" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.9">
-      <c r="C35" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="42" t="s">
+      <c r="C35" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="D35" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="E35" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
+      <c r="F35" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.9">
-      <c r="C36" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" s="43" t="s">
+      <c r="C36" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="D36" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="E36" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="F36" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="G36" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
+      <c r="H36" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.9">
-      <c r="C37" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="47" t="s">
+      <c r="C37" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="D37" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="E37" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="G37" s="44" t="s">
+      <c r="F37" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
+      <c r="G37" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.9">
-      <c r="C38" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" s="43" t="s">
+      <c r="C38" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="D38" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="E38" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="F38" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="H38" s="43" t="s">
+      <c r="G38" s="38" t="s">
         <v>219</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C39" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="41" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C41" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C42" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C43" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I43" s="5">
         <f>COUNTIFS(C33:G33,"🐼")</f>
         <v>1</v>
       </c>
-      <c r="J43" s="26" t="str">
+      <c r="J43" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(I43)</f>
         <v>=COUNTIFS(C33:G33,"🐼")</v>
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C44" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I44" s="5">
         <f>_xlfn.XMATCH("⚂",C36:H36)</f>
         <v>3</v>
       </c>
-      <c r="J44" s="26" t="str">
+      <c r="J44" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(I44)</f>
         <v>=XMATCH("⚂",C36:H36)</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C45" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="47" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C47" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="49" spans="3:9" x14ac:dyDescent="0.9">
       <c r="C49" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.9">
       <c r="C50" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.9">
-      <c r="C51" s="43" t="s">
-        <v>186</v>
+      <c r="C51" s="38" t="s">
+        <v>187</v>
       </c>
       <c r="D51" s="5">
         <f>LEN(C51)</f>
         <v>2</v>
       </c>
-      <c r="E51" s="26" t="str">
+      <c r="E51" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D51)</f>
         <v>=LEN(C51)</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.9">
-      <c r="C52" s="42" t="s">
-        <v>199</v>
+      <c r="C52" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="D52" s="5">
         <f>LEN(C52)</f>
         <v>1</v>
       </c>
-      <c r="E52" s="26" t="str">
+      <c r="E52" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D52)</f>
         <v>=LEN(C52)</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.9">
       <c r="C53" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.9">
       <c r="C54" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.9">
       <c r="C55" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E55" s="5" t="str">
         <f>MID(C55,2,1)</f>
         <v>_xDC3B_</v>
       </c>
-      <c r="F55" s="26" t="str">
+      <c r="F55" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E55)</f>
         <v>=MID(C55,2,1)</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.9">
@@ -6847,22 +8822,22 @@
         <f>MID(C55,3,2)</f>
         <v>🐼</v>
       </c>
-      <c r="F56" s="26" t="str">
+      <c r="F56" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E56)</f>
         <v>=MID(C55,3,2)</v>
       </c>
-      <c r="I56" s="41" t="s">
-        <v>233</v>
+      <c r="I56" s="36" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.9">
       <c r="I57" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.9">
       <c r="C58" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.9">
@@ -6870,7 +8845,7 @@
         <f>LEFT(C55)</f>
         <v>🐻</v>
       </c>
-      <c r="D59" s="26" t="str">
+      <c r="D59" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C59)</f>
         <v>=LEFT(C55)</v>
       </c>
@@ -6878,7 +8853,7 @@
         <f>LEN(C59)</f>
         <v>2</v>
       </c>
-      <c r="H59" s="26" t="str">
+      <c r="H59" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(G59)</f>
         <v>=LEN(C59)</v>
       </c>
@@ -6888,7 +8863,7 @@
         <f>LEFT(C55,2)</f>
         <v>🐻🐼</v>
       </c>
-      <c r="D60" s="26" t="str">
+      <c r="D60" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C60)</f>
         <v>=LEFT(C55,2)</v>
       </c>
@@ -6896,260 +8871,272 @@
         <f>LEN(C60)</f>
         <v>4</v>
       </c>
-      <c r="H60" s="26" t="str">
+      <c r="H60" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(G60)</f>
         <v>=LEN(C60)</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.9">
       <c r="C61" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.9">
       <c r="C62" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.9">
       <c r="C63" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="65" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C65" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C66" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.9">
-      <c r="C67" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="D67" s="28" t="s">
+      <c r="C67" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="D67" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="E67" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="G67" s="28" t="s">
+      <c r="F67" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+      <c r="G67" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.9">
-      <c r="C68" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="34" t="s">
+      <c r="C68" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="D68" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="F68" s="38" t="s">
+      <c r="E68" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="G68" s="37" t="s">
+      <c r="F68" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H68" s="36" t="s">
+      <c r="G68" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I68" s="35" t="s">
+      <c r="H68" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="J68" s="34" t="s">
+      <c r="I68" s="30" t="s">
         <v>198</v>
       </c>
+      <c r="J68" s="29" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.9">
-      <c r="C69" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" s="34" t="s">
+      <c r="C69" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="28" t="s">
+      <c r="D69" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="28" t="s">
+      <c r="E69" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="F69" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.9">
-      <c r="C70" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D70" s="28" t="s">
+      <c r="C70" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="E70" s="28" t="s">
+      <c r="D70" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="E70" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G70" s="28" t="s">
+      <c r="F70" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="H70" s="28" t="s">
+      <c r="G70" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+      <c r="H70" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.9">
-      <c r="C71" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="D71" s="32" t="s">
+      <c r="C71" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="31" t="s">
+      <c r="D71" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="E71" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="G71" s="29" t="s">
+      <c r="F71" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
+      <c r="G71" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.9">
-      <c r="C72" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="28" t="s">
+      <c r="C72" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E72" s="28" t="s">
+      <c r="D72" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="F72" s="28" t="s">
+      <c r="E72" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="G72" s="28" t="s">
+      <c r="F72" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="H72" s="28" t="s">
+      <c r="G72" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
+      <c r="H72" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C73" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C74" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C75" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.9">
       <c r="C76" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.9">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.9">
       <c r="B83" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.9">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.9">
       <c r="C84" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H84" s="5" t="str">
         <f>_xlfn.TEXTAFTER(C84," ",-1)</f>
         <v>word</v>
       </c>
-      <c r="I84" s="26" t="str">
+      <c r="I84" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(H84)</f>
         <v>=TEXTAFTER(C84," ",-1)</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.9">
+      <c r="Q84" s="5" t="str">
+        <f>_xlfn.TEXTAFTER(C84," ",-1)</f>
+        <v>word</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.9">
       <c r="C85" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H85" s="5" t="str" cm="1">
         <f t="array" ref="H85">_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(C85," "),-3)</f>
         <v>third</v>
       </c>
-      <c r="I85" s="26" t="str">
+      <c r="I85" s="21" t="str">
         <f ca="1">_xlfn.FORMULATEXT(H85)</f>
         <v>=CHOOSECOLS(TEXTSPLIT(C85," "),-3)</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.9">
+      <c r="Q85" s="5" t="str" cm="1">
+        <f t="array" ref="Q85">_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(C85," "),-3)</f>
+        <v>third</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.9">
       <c r="C87" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.9">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.9">
       <c r="C88" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.9">
       <c r="C89" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.9">
       <c r="C90" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.9">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.9">
       <c r="C91" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.9">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.9">
       <c r="C92" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.9">
+        <v>254</v>
+      </c>
+      <c r="M92" s="5" t="str" cm="1">
+        <f t="array" ref="M92">_xlfn.CONCAT(_xlfn.TEXTSPLIT(C92,_xlfn.TEXTSPLIT(C92,CHAR(_xlfn.SEQUENCE(,26,CODE("A"))),,1),,1))</f>
+        <v>ASRFLDFGJJNFPOQMFOWT</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.9">
       <c r="C94" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.9">
       <c r="C95" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.9">
       <c r="C96" s="5" t="str" cm="1">
         <f t="array" ref="C96:H96">_xlfn.TEXTSPLIT(C92,CHAR(_xlfn.SEQUENCE(26,,CODE("A"))),,1)</f>
         <v>%$#</v>
@@ -7172,7 +9159,7 @@
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.9">
       <c r="C97" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.9">
@@ -7184,12 +9171,12 @@
     <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
     <row r="100" spans="3:6" x14ac:dyDescent="0.9">
       <c r="C100" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.9">
       <c r="C101" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.9">
@@ -7205,6 +9192,20 @@
       </c>
       <c r="F102" s="5">
         <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.9">
+      <c r="C103" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.9">
+      <c r="C104" s="5" t="str" cm="1">
+        <f t="array" ref="C104:D104">_xlfn.TEXTSPLIT(C103,_xlfn.SEQUENCE(10,,0),,1)</f>
+        <v>-</v>
+      </c>
+      <c r="D104" s="5" t="str">
+        <v>-</v>
       </c>
     </row>
   </sheetData>
@@ -7219,228 +9220,292 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC5484A-9BC3-47C8-8A18-F69FAD853AC7}">
-  <dimension ref="B2:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE6942B-5ACB-4481-B036-48E02434228A}">
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="47.4" x14ac:dyDescent="0.9"/>
+  <cols>
+    <col min="1" max="1" width="2.5859375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="2.5859375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.3515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.5859375" style="5"/>
+    <col min="10" max="10" width="6.1171875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.5859375" style="5"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D2" s="22">
-        <v>0.02</v>
-      </c>
-      <c r="E2" s="22">
-        <v>0.04</v>
-      </c>
-      <c r="F2" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="22">
-        <v>0.06</v>
-      </c>
-      <c r="H2" s="22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B3" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="D3" s="22" cm="1">
-        <f t="array" ref="D3:H4">D2:H2+B3:B4</f>
-        <v>0.03</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="22">
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="G3" s="22">
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B4" s="21">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="D4" s="22">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E4" s="22">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F4" s="22">
-        <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="G4" s="22">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H4" s="22">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="23">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="F8" s="23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G8" s="23">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="H8" s="23">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B9" s="23">
-        <v>1.5E-3</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23" cm="1">
-        <f t="array" ref="D9:H10">D8:H8+B9:B10</f>
-        <v>1.15E-2</v>
-      </c>
-      <c r="E9" s="23">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F9" s="23">
-        <v>6.5000000000000006E-3</v>
-      </c>
-      <c r="G9" s="23">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H9" s="23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B10" s="23">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="E10" s="23">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F10" s="23">
-        <v>4.5000000000000005E-3</v>
-      </c>
-      <c r="G10" s="23">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H10" s="23">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D12" s="24" cm="1">
-        <f t="array" ref="D12:H12">_xlfn.SEQUENCE(,5)</f>
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A1" s="51" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="B4" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="C5" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="C6" s="5" t="str">
+        <f>A1</f>
+        <v>Hi</v>
+      </c>
+      <c r="D6" s="21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C6)</f>
+        <v>=A1</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="24">
-        <v>2</v>
-      </c>
-      <c r="F12" s="24">
-        <v>3</v>
-      </c>
-      <c r="G12" s="24">
+      <c r="E7" s="36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="B10" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="C11" s="5" t="str" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">INDIRECT("A1")</f>
+        <v>Hi</v>
+      </c>
+      <c r="D11" s="21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C11)</f>
+        <v>=INDIRECT("A1")</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="C12" s="5" t="str" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">INDIRECT("'D3 ex'!B5")</f>
+        <v>TeStInG</v>
+      </c>
+      <c r="D12" s="21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C12)</f>
+        <v>=INDIRECT("'D3 ex'!B5")</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="B14" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="C15" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.9">
+      <c r="D16" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="D17" s="5" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">ROW(INDIRECT(D16))</f>
+        <v>7983</v>
+      </c>
+      <c r="E17" s="21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D17)</f>
+        <v>=ROW(INDIRECT(D16))</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="D18" s="5" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">COLUMN(INDIRECT(D16))</f>
+        <v>836</v>
+      </c>
+      <c r="E18" s="21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D18)</f>
+        <v>=COLUMN(INDIRECT(D16))</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="C20" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="D21" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="D22" s="5" t="str">
+        <f>_xlfn.TEXTBEFORE(D21,_xlfn.SEQUENCE(10,,0))</f>
+        <v>AFD</v>
+      </c>
+      <c r="E22" s="21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D22)</f>
+        <v>=TEXTBEFORE(D21,SEQUENCE(10,,0))</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="D23" s="5">
+        <f>_xlfn.TEXTAFTER(D21,D22)*1</f>
+        <v>7983</v>
+      </c>
+      <c r="E23" s="21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D23)</f>
+        <v>=TEXTAFTER(D21,D22)*1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="C24" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="C26" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="D27" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="D28" s="5">
+        <f>MID(D27,2,2)*1</f>
+        <v>35</v>
+      </c>
+      <c r="E28" s="21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D28)</f>
+        <v>=MID(D27,2,2)*1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="D29" s="5">
+        <f>CODE(D27)-64</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D29)</f>
+        <v>=CODE(D27)-64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="C30" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.9">
+      <c r="B32" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.9">
+      <c r="C33" s="5">
+        <v>28</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.9">
+      <c r="C34" s="5">
         <v>4</v>
       </c>
-      <c r="H12" s="24">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <f>GEOMEAN(_xlfn.ANCHORARRAY(D12))</f>
-        <v>2.6051710846973521</v>
-      </c>
-      <c r="K12">
-        <f>AVERAGE(_xlfn.ANCHORARRAY(D12))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D13" s="23" cm="1">
-        <f t="array" ref="D13:H13">_xlfn.SEQUENCE(,5,0.04,0)</f>
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C14" s="25">
-        <v>88</v>
-      </c>
-      <c r="D14" s="25" cm="1">
-        <f t="array" ref="D14:H14">C14*(1+D13)^_xlfn.ANCHORARRAY(D12)</f>
-        <v>91.52000000000001</v>
-      </c>
-      <c r="E14" s="25">
-        <v>95.180800000000005</v>
-      </c>
-      <c r="F14" s="25">
-        <v>98.988032000000004</v>
-      </c>
-      <c r="G14" s="25">
-        <v>102.94755328000002</v>
-      </c>
-      <c r="H14" s="25">
-        <v>107.06545541120003</v>
-      </c>
-      <c r="I14" s="25">
-        <f>SUM(D14:H14)</f>
-        <v>495.70184069120012</v>
-      </c>
-      <c r="J14">
-        <f>GEOMEAN(_xlfn.ANCHORARRAY(D14))</f>
-        <v>98.988032000000018</v>
-      </c>
-      <c r="K14">
-        <f>AVERAGE(_xlfn.ANCHORARRAY(D14))</f>
-        <v>99.140368138240021</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D16" t="e" cm="1">
-        <f t="array" ref="D16">geom</f>
-        <v>#NAME?</v>
+      <c r="D34" s="36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.9">
+      <c r="C35" s="5" cm="1">
+        <f t="array" ref="C35">INDEX(1:1048576,C33,C34)</f>
+        <v>35</v>
+      </c>
+      <c r="D35" s="21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C35)</f>
+        <v>=INDEX(1:1048576,C33,C34)</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.9">
+      <c r="B37" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.9">
+      <c r="C38" s="5">
+        <v>28</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.9">
+      <c r="C39" s="5">
+        <v>4</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.9">
+      <c r="C40" s="5" t="str">
+        <f>ADDRESS(C38,C39,4)</f>
+        <v>D28</v>
+      </c>
+      <c r="D40" s="21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C40)</f>
+        <v>=ADDRESS(C38,C39,4)</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.9">
+      <c r="B42" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.9">
+      <c r="C43" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.9">
+      <c r="C44" s="5" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelEsport/Dim bootcamp notes.xlsx
+++ b/ExcelEsport/Dim bootcamp notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2948472F-0103-42F6-BE6F-669AD684E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CB7B3E-89BA-4E4D-9C62-2D64D07C1897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{F9BF1E89-DD97-4488-B5FA-5A3F8B8826CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{F9BF1E89-DD97-4488-B5FA-5A3F8B8826CF}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="names">'D1 ex'!$B$13</definedName>
     <definedName name="Team_2D">'D8 ex'!$A$3:$A$6</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcOnSave="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2525,10 +2525,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07696C6-41DC-4867-AC84-E6097DFBBB4D}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C56" sqref="C56"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="47.4" x14ac:dyDescent="0.9"/>
@@ -3014,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EE8F1C-EAAA-4794-892B-BC309416F003}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.9375" defaultRowHeight="27.45" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -3027,7 +3027,7 @@
     <col min="5" max="5" width="5.9375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.87890625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.76171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.87890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.64453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.41015625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.46875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.234375" bestFit="1" customWidth="1"/>
@@ -3271,6 +3271,10 @@
         <f t="array" ref="C10:C57">_xlfn.TOCOL(Data_2D)</f>
         <v>0</v>
       </c>
+      <c r="E10" t="str" cm="1">
+        <f t="array" ref="E10:E57">_xlfn.TOCOL(IF(Data_2D&lt;&gt;-1,Month_2D))</f>
+        <v>Jan</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" t="str">
@@ -3282,6 +3286,9 @@
       <c r="C11">
         <v>12</v>
       </c>
+      <c r="E11" t="str">
+        <v>Feb</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" t="str">
@@ -3293,6 +3300,9 @@
       <c r="C12">
         <v>35</v>
       </c>
+      <c r="E12" t="str">
+        <v>Mar</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" t="str">
@@ -3304,6 +3314,9 @@
       <c r="C13">
         <v>38</v>
       </c>
+      <c r="E13" t="str">
+        <v>Apr</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" t="str">
@@ -3315,6 +3328,9 @@
       <c r="C14">
         <v>28</v>
       </c>
+      <c r="E14" t="str">
+        <v>May</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" t="str">
@@ -3326,6 +3342,9 @@
       <c r="C15">
         <v>31</v>
       </c>
+      <c r="E15" t="str">
+        <v>Jun</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" t="str">
@@ -3337,8 +3356,11 @@
       <c r="C16">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E16" t="str">
+        <v>Jul</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" t="str">
         <v>Team Alpha</v>
       </c>
@@ -3348,8 +3370,11 @@
       <c r="C17">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E17" t="str">
+        <v>Aug</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" t="str">
         <v>Team Alpha</v>
       </c>
@@ -3359,8 +3384,11 @@
       <c r="C18">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E18" t="str">
+        <v>Sep</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" t="str">
         <v>Team Alpha</v>
       </c>
@@ -3370,8 +3398,11 @@
       <c r="C19">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E19" t="str">
+        <v>Oct</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" t="str">
         <v>Team Alpha</v>
       </c>
@@ -3381,8 +3412,11 @@
       <c r="C20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E20" t="str">
+        <v>Nov</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" t="str">
         <v>Team Alpha</v>
       </c>
@@ -3392,8 +3426,11 @@
       <c r="C21">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E21" t="str">
+        <v>Dec</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" t="str">
         <v>Team Beta</v>
       </c>
@@ -3403,8 +3440,11 @@
       <c r="C22">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E22" t="str">
+        <v>Jan</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" t="str">
         <v>Team Beta</v>
       </c>
@@ -3414,8 +3454,11 @@
       <c r="C23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E23" t="str">
+        <v>Feb</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" t="str">
         <v>Team Beta</v>
       </c>
@@ -3425,8 +3468,11 @@
       <c r="C24">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E24" t="str">
+        <v>Mar</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" t="str">
         <v>Team Beta</v>
       </c>
@@ -3436,8 +3482,11 @@
       <c r="C25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E25" t="str">
+        <v>Apr</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" t="str">
         <v>Team Beta</v>
       </c>
@@ -3447,8 +3496,11 @@
       <c r="C26">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E26" t="str">
+        <v>May</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" t="str">
         <v>Team Beta</v>
       </c>
@@ -3458,8 +3510,11 @@
       <c r="C27">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E27" t="str">
+        <v>Jun</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" t="str">
         <v>Team Beta</v>
       </c>
@@ -3469,8 +3524,11 @@
       <c r="C28">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E28" t="str">
+        <v>Jul</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" t="str">
         <v>Team Beta</v>
       </c>
@@ -3480,8 +3538,11 @@
       <c r="C29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E29" t="str">
+        <v>Aug</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" t="str">
         <v>Team Beta</v>
       </c>
@@ -3491,8 +3552,11 @@
       <c r="C30">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E30" t="str">
+        <v>Sep</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" t="str">
         <v>Team Beta</v>
       </c>
@@ -3502,8 +3566,11 @@
       <c r="C31">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E31" t="str">
+        <v>Oct</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" t="str">
         <v>Team Beta</v>
       </c>
@@ -3513,8 +3580,11 @@
       <c r="C32">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E32" t="str">
+        <v>Nov</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" t="str">
         <v>Team Beta</v>
       </c>
@@ -3524,8 +3594,11 @@
       <c r="C33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E33" t="str">
+        <v>Dec</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" t="str">
         <v>Team Gamma</v>
       </c>
@@ -3535,8 +3608,11 @@
       <c r="C34">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E34" t="str">
+        <v>Jan</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" t="str">
         <v>Team Gamma</v>
       </c>
@@ -3546,8 +3622,11 @@
       <c r="C35">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E35" t="str">
+        <v>Feb</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" t="str">
         <v>Team Gamma</v>
       </c>
@@ -3557,8 +3636,11 @@
       <c r="C36">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E36" t="str">
+        <v>Mar</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" t="str">
         <v>Team Gamma</v>
       </c>
@@ -3568,8 +3650,11 @@
       <c r="C37">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E37" t="str">
+        <v>Apr</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" t="str">
         <v>Team Gamma</v>
       </c>
@@ -3579,8 +3664,11 @@
       <c r="C38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E38" t="str">
+        <v>May</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" t="str">
         <v>Team Gamma</v>
       </c>
@@ -3590,8 +3678,11 @@
       <c r="C39">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E39" t="str">
+        <v>Jun</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" t="str">
         <v>Team Gamma</v>
       </c>
@@ -3601,8 +3692,11 @@
       <c r="C40">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E40" t="str">
+        <v>Jul</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" t="str">
         <v>Team Gamma</v>
       </c>
@@ -3612,8 +3706,11 @@
       <c r="C41">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E41" t="str">
+        <v>Aug</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" t="str">
         <v>Team Gamma</v>
       </c>
@@ -3623,8 +3720,11 @@
       <c r="C42">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E42" t="str">
+        <v>Sep</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" t="str">
         <v>Team Gamma</v>
       </c>
@@ -3634,8 +3734,11 @@
       <c r="C43">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E43" t="str">
+        <v>Oct</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" t="str">
         <v>Team Gamma</v>
       </c>
@@ -3645,8 +3748,11 @@
       <c r="C44">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E44" t="str">
+        <v>Nov</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" t="str">
         <v>Team Gamma</v>
       </c>
@@ -3656,8 +3762,11 @@
       <c r="C45">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E45" t="str">
+        <v>Dec</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" t="str">
         <v>Team Delta</v>
       </c>
@@ -3667,8 +3776,11 @@
       <c r="C46">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E46" t="str">
+        <v>Jan</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" t="str">
         <v>Team Delta</v>
       </c>
@@ -3678,8 +3790,11 @@
       <c r="C47">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E47" t="str">
+        <v>Feb</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" t="str">
         <v>Team Delta</v>
       </c>
@@ -3689,8 +3804,11 @@
       <c r="C48">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E48" t="str">
+        <v>Mar</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" t="str">
         <v>Team Delta</v>
       </c>
@@ -3700,8 +3818,11 @@
       <c r="C49">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E49" t="str">
+        <v>Apr</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" t="str">
         <v>Team Delta</v>
       </c>
@@ -3711,8 +3832,11 @@
       <c r="C50">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E50" t="str">
+        <v>May</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" t="str">
         <v>Team Delta</v>
       </c>
@@ -3722,8 +3846,11 @@
       <c r="C51">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E51" t="str">
+        <v>Jun</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" t="str">
         <v>Team Delta</v>
       </c>
@@ -3733,8 +3860,11 @@
       <c r="C52">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E52" t="str">
+        <v>Jul</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" t="str">
         <v>Team Delta</v>
       </c>
@@ -3744,8 +3874,11 @@
       <c r="C53">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E53" t="str">
+        <v>Aug</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" t="str">
         <v>Team Delta</v>
       </c>
@@ -3755,8 +3888,11 @@
       <c r="C54">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E54" t="str">
+        <v>Sep</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" t="str">
         <v>Team Delta</v>
       </c>
@@ -3766,8 +3902,11 @@
       <c r="C55">
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E55" t="str">
+        <v>Oct</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" t="str">
         <v>Team Delta</v>
       </c>
@@ -3777,8 +3916,11 @@
       <c r="C56">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E56" t="str">
+        <v>Nov</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" t="str">
         <v>Team Delta</v>
       </c>
@@ -3787,6 +3929,9 @@
       </c>
       <c r="C57">
         <v>25</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Dec</v>
       </c>
     </row>
   </sheetData>
@@ -5949,7 +6094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E75372-233B-46C3-B60F-2EB456B82444}">
   <dimension ref="B2:N166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
